--- a/Arbeitspakete_Liste.xlsx
+++ b/Arbeitspakete_Liste.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF04147-422A-435E-9E49-BB3D5C04E735}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CCE473-5EC9-482C-BB8A-BB16EC75F95D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,114 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{903ED91B-046E-4414-8A64-D6FE97BAA818}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ich würd generell einfach sagen es gibt ein Arbeitspaket --&gt; Übertragung der Alt-Inhalte</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{A836EA1A-444D-4AE3-A308-A722EDA5D2AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+wir entwickeln ja weiter, also sind die Funktionalitäten schon gegeben</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{112AA9E0-9D1F-4A50-880C-4E0DDC1D940A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+würd ich nicht mit in den Titel sondern direkt in das Arbeitspaket schreiben</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{1B09453D-D682-4118-A287-A4C5ACD0219B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+müssen wir nochmal abklären ob wir die wirklich beschaffen/installieren müssen oder nur mitteilen was wir wann brauchen</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -29,34 +135,18 @@
   </si>
   <si>
     <t>Bearbeitungsstand</t>
-  </si>
-  <si>
-    <t>Inhalte einpflegen</t>
-  </si>
-  <si>
-    <t>Beschaffung der
-neuen Rechner</t>
   </si>
   <si>
     <t>Nutzer im System
 registrieren</t>
   </si>
   <si>
-    <t>Implementation
-des Prozesses zur
-Urlaubsbeantragung</t>
-  </si>
-  <si>
     <t>Implementierung des
 Nutzermanagements</t>
   </si>
   <si>
     <t xml:space="preserve"> Die Datenbank aufsetzen
 Schnittstelle bereitstellen</t>
-  </si>
-  <si>
-    <t>Implementation eines
-Forums im Intranet</t>
   </si>
   <si>
     <t>Implementation des
@@ -73,51 +163,15 @@
   </si>
   <si>
     <t>Implementation des
-Schmankerls: "intelligente Suche"</t>
-  </si>
-  <si>
-    <t>Implementation einer
-Kommentarfunktion</t>
-  </si>
-  <si>
-    <t>Implementation des
 News-Sliders</t>
-  </si>
-  <si>
-    <t>Umsetzung der
-Kategorisierung der
-News</t>
-  </si>
-  <si>
-    <t>PDF Export-Funktion
-implementieren</t>
   </si>
   <si>
     <t>Implementation des
 "Single-Sign-Ons"</t>
   </si>
   <si>
-    <t>FAQ-Bereich erschaffen</t>
-  </si>
-  <si>
     <t>Implementation des
 Meetingtools</t>
-  </si>
-  <si>
-    <t>Implementierung der
-Funktionalität des
-internen Bestellprozess
-von Betriebsmitteln</t>
-  </si>
-  <si>
-    <t>Einrichtung und
-Implementierung des
-persönlichen Bereichs
-für Dokumente (HR-Bereich)</t>
-  </si>
-  <si>
-    <t>Implementierung des
-Schwarzen Brett</t>
   </si>
   <si>
     <t>Vorschriften/Regelwerk-
@@ -129,22 +183,92 @@
 tools</t>
   </si>
   <si>
-    <t>Einpflegen von Videos
+    <t>Implementation des
+Kommunikationstools</t>
+  </si>
+  <si>
+    <t>Anforderungserhebung</t>
+  </si>
+  <si>
+    <t>Feinkonzeption ausarbeiten</t>
+  </si>
+  <si>
+    <t>Implementation des
+Forums</t>
+  </si>
+  <si>
+    <t>Implementation der
+Kommentarfunktion</t>
+  </si>
+  <si>
+    <t>Implementierung des
+internen Bestellprozesses
+von Betriebsmitteln</t>
+  </si>
+  <si>
+    <t>Implementation der intelligenten Suchfunktion</t>
+  </si>
+  <si>
+    <t>Implementation
+der
+Urlaubsbeantragung</t>
+  </si>
+  <si>
+    <t>Implementation der PDF Export-Funktion</t>
+  </si>
+  <si>
+    <t>Kategorisierung der
+News</t>
+  </si>
+  <si>
+    <t>Implementierung des
+Schwarzen Bretts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Einpflegen von Videos
 und Texten in den Tutorial
-Bereich in Zusammenarbeit
+Bereich </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in Zusammenarbeit
 mit dem Arbeitnehmern
 und dem Auftraggeber</t>
-  </si>
-  <si>
-    <t>Implementation des
-Kommunikationstools</t>
+    </r>
+  </si>
+  <si>
+    <t>Implementierung des
+persönlichen Bereichs
+für Dokumente (HR-Bereich)</t>
+  </si>
+  <si>
+    <t>FAQ-Bereich erstellen</t>
+  </si>
+  <si>
+    <t>Beschaffung neuer Hardware</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Ausarbeitung des Schulungskonzepts</t>
+  </si>
+  <si>
+    <t>Betriebshandbuch erstellen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +276,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -214,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -227,6 +377,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,17 +664,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -533,26 +690,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -560,181 +716,214 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>3</v>
+      <c r="B29" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>26</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Arbeitspakete_Liste.xlsx
+++ b/Arbeitspakete_Liste.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CCE473-5EC9-482C-BB8A-BB16EC75F95D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E683ED99-042C-42FE-BA8D-AE14A41A1587}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -145,10 +145,6 @@
 Nutzermanagements</t>
   </si>
   <si>
-    <t xml:space="preserve"> Die Datenbank aufsetzen
-Schnittstelle bereitstellen</t>
-  </si>
-  <si>
     <t>Implementation des
 Anwesenheitsstatus</t>
   </si>
@@ -262,6 +258,10 @@
   </si>
   <si>
     <t>Betriebshandbuch erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Die Datenbanken aufsetzen
+Schnittstelle bereitstellen</t>
   </si>
 </sst>
 </file>
@@ -297,7 +297,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,7 +306,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -373,17 +379,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,31 +700,31 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
+      <c r="B4" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -724,201 +733,201 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B20" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4" t="s">
+      <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>25</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>26</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>19</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>20</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>22</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>23</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>24</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>25</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>26</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitspakete_Liste.xlsx
+++ b/Arbeitspakete_Liste.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E683ED99-042C-42FE-BA8D-AE14A41A1587}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23DC7CB-A650-4516-A9F2-E6A82342BFC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$E$1:$E$29</definedName>
+  </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -97,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{1B09453D-D682-4118-A287-A4C5ACD0219B}">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{1B09453D-D682-4118-A287-A4C5ACD0219B}">
       <text>
         <r>
           <rPr>
@@ -126,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -200,9 +203,6 @@
     <t>Implementierung des
 internen Bestellprozesses
 von Betriebsmitteln</t>
-  </si>
-  <si>
-    <t>Implementation der intelligenten Suchfunktion</t>
   </si>
   <si>
     <t>Implementation
@@ -245,9 +245,6 @@
 für Dokumente (HR-Bereich)</t>
   </si>
   <si>
-    <t>FAQ-Bereich erstellen</t>
-  </si>
-  <si>
     <t>Beschaffung neuer Hardware</t>
   </si>
   <si>
@@ -262,6 +259,28 @@
   <si>
     <t xml:space="preserve"> Die Datenbanken aufsetzen
 Schnittstelle bereitstellen</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Gerrit</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Implementation der intelligenten Suchfunktion
+FAQ-Bereich erstellen</t>
+  </si>
+  <si>
+    <t>Bearbeiter</t>
+  </si>
+  <si>
+    <t>Grün?</t>
   </si>
 </sst>
 </file>
@@ -317,40 +336,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -366,32 +357,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,9 +678,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -692,245 +696,314 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="3"/>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="3"/>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>3</v>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="B19" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    </row>
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>19</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>20</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>22</v>
-      </c>
-      <c r="B26" s="7" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>23</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>24</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>25</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>26</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="B29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E29" xr:uid="{FF94E3BE-ADC5-4257-BB23-15A7CDC116AB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Arbeitspakete_Liste.xlsx
+++ b/Arbeitspakete_Liste.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23DC7CB-A650-4516-A9F2-E6A82342BFC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0CA9C0-D82E-4841-A520-BCC0C28A636E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$E$1:$E$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$D$1:$E$29</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -681,7 +681,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1003,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E29" xr:uid="{FF94E3BE-ADC5-4257-BB23-15A7CDC116AB}"/>
+  <autoFilter ref="D1:E29" xr:uid="{64CA60E4-C377-4D7E-B0D5-971311EB2BCE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
